--- a/HybridFrameworkOpenCartAutomation/src/test/resources/testData.xlsx
+++ b/HybridFrameworkOpenCartAutomation/src/test/resources/testData.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15840" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15840" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="NEW CUSTOMER" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="StorePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -31,12 +30,6 @@
     <t>YjUmepe</t>
   </si>
   <si>
-    <t>ms123</t>
-  </si>
-  <si>
-    <t>hd123</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -92,6 +85,24 @@
   </si>
   <si>
     <t>pwd</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>sortingText</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>Sort by popularity</t>
   </si>
 </sst>
 </file>
@@ -436,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,18 +465,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -485,54 +488,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -544,13 +547,13 @@
         <v>1997</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>444444</v>
@@ -559,7 +562,7 @@
         <v>12121212</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>123</v>
@@ -581,12 +584,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HybridFrameworkOpenCartAutomation/src/test/resources/testData.xlsx
+++ b/HybridFrameworkOpenCartAutomation/src/test/resources/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>UserName</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>Sort by popularity</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Gaoan Bhag</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -584,31 +605,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>